--- a/doc/레벨 디자인 문서.xlsx
+++ b/doc/레벨 디자인 문서.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="-15" windowWidth="14490" windowHeight="14805" activeTab="3"/>
+    <workbookView xWindow="300" yWindow="45" windowWidth="14490" windowHeight="14745" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="주인공 능력치" sheetId="1" r:id="rId1"/>
     <sheet name="동료들 능력치" sheetId="4" r:id="rId2"/>
     <sheet name="적들 능력치" sheetId="2" r:id="rId3"/>
-    <sheet name="아이템" sheetId="3" r:id="rId4"/>
+    <sheet name="보스들 능력치" sheetId="6" r:id="rId4"/>
+    <sheet name="상점 아이템" sheetId="3" r:id="rId5"/>
+    <sheet name="액티브 아이템" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="166">
   <si>
     <t>체력</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,10 +277,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>체력을 100 회복한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>토끼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -343,12 +341,352 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>충돌 무시, 무적상태가 된다.(상점 벗어난 후 10초 유지)</t>
+    <t>체력 상승치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘 상승치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도 상승치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튕기는 횟수 상승치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거북이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a거북이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b거북이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화속성 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기속성 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차지 공격 업그레이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차지하면 올라가는 데미지와 속도 상승의 최대치가 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람 속성 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충돌 무시 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부활 가능 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력을 +30% 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유도 속성 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1m/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차지 상승치(데미지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차지 상승치(속도)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_recover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_bounce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_ignore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_resurrection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_charge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 유지시 등장 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유지 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 증가 배수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염 데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지 딜레이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기 데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기 체인 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 공격 범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동료 모두에게 화속성이 부여된다. 동료가 적을 때리면 일정시간 동안
+적에게 화염 이펙트가 생기면서 데미지를 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동료 모두에게 전기 속성이 부여된다. 동료가 적을 때리면 가장 가까운 적부터
+차례대로 3번째 적까지 데미지를 준다.(체인 라이트닝)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동료들 모두의 주위에 추가적인 공격 범위가 생기며 그 범위에 적이 닿을
+경우 데미지를 입는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동료들 모두가 적을 때리면 가장 가까운 적에게 유도되어 날아간다.
+(튕기는 횟수가 끝이 나면 더 이상 유도하지 않는다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택 값(기본 값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충돌 무시, 무적상태가 된다.(10초 유지)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>적으로 부터 얻는 골드 증가
-(상점 벗어난 이후 15초 동안 얻는 골드 2배 증가)</t>
+(15초 동안 얻는 골드 2배 증가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activeItem_invincible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activeItem_goldmine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activeItem_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activeItem_electric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activeItem_wind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activeItem_homing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지1 보스 능력치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10+n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격1 대기시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격2 대기시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격3 대기시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격4 대기시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격1:통굴리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격2:몽둥이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격3:하수인 총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격4:하수인 폭탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격1 애니메이션 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격2 애니메이션 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격3 애니메이션 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격4 애니메이션 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p3:1초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2, p3:2초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p = pattern(패턴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 드랍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -356,7 +694,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +705,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -424,12 +770,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -469,14 +818,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -779,7 +1147,7 @@
   <dimension ref="B3:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -827,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E20"/>
+  <dimension ref="B2:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -842,18 +1210,18 @@
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="5"/>
       <c r="C2" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="10">
         <v>10</v>
@@ -863,7 +1231,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="10">
         <v>10</v>
@@ -873,7 +1241,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
@@ -883,7 +1251,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="10">
         <v>5</v>
@@ -894,18 +1262,18 @@
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="10">
         <v>10</v>
@@ -915,7 +1283,7 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="10">
         <v>10</v>
@@ -925,7 +1293,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="10">
         <v>1</v>
@@ -935,7 +1303,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="10">
         <v>5</v>
@@ -946,18 +1314,18 @@
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="C16" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="10">
         <v>10</v>
@@ -967,7 +1335,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="10">
         <v>10</v>
@@ -977,7 +1345,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="10">
         <v>1</v>
@@ -987,13 +1355,117 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="10">
         <v>5</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="5"/>
+      <c r="C23" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="10">
+        <v>10</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="10">
+        <v>10</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="10">
+        <v>1</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="10">
+        <v>5</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="5"/>
+      <c r="C30" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="10">
+        <v>10</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="10">
+        <v>10</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="10">
+        <v>1</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="10">
+        <v>5</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1005,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1245,196 +1717,967 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F13"/>
+  <dimension ref="B2:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="3" max="3" width="48.75" customWidth="1"/>
-    <col min="4" max="4" width="6.75" customWidth="1"/>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="18.25" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="15.25" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="13" width="22.625" customWidth="1"/>
+    <col min="14" max="14" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.625" customWidth="1"/>
+    <col min="16" max="16" width="21.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="13">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="13">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="2">
-        <v>5</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="2">
-        <v>5</v>
-      </c>
-      <c r="E13" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>80</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="M5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>152</v>
+      </c>
+      <c r="M8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:R18"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="35.5" customWidth="1"/>
+    <col min="4" max="4" width="55" customWidth="1"/>
+    <col min="7" max="7" width="20.75" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="9.25" customWidth="1"/>
+    <col min="11" max="11" width="13.75" customWidth="1"/>
+    <col min="12" max="12" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.75" customWidth="1"/>
+    <col min="14" max="14" width="19.875" customWidth="1"/>
+    <col min="15" max="15" width="14.5" customWidth="1"/>
+    <col min="16" max="17" width="19.5" customWidth="1"/>
+    <col min="18" max="18" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="6">
+        <v>10</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="12">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="12">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="12">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="16">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="12">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="5">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="16">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>1</v>
+      </c>
+      <c r="O9" s="12">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="12">
+        <v>1</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0</v>
+      </c>
+      <c r="R10" s="6"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="5">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="12">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="5">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="16">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R12" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="4" width="66.375" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="11.875" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="12" max="12" width="13.75" customWidth="1"/>
+    <col min="13" max="13" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="19">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="6">
+        <v>10</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="19">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="6">
+        <v>15</v>
+      </c>
+      <c r="H4" s="6">
+        <v>2</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="18">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="6">
+        <v>20</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>5</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="19">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" s="6">
+        <v>20</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>20</v>
+      </c>
+      <c r="L6" s="6">
+        <v>3</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="6">
+        <v>20</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="19">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" s="6">
+        <v>20</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E9" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>